--- a/src/choix_var_temp.xlsx
+++ b/src/choix_var_temp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stardisblue\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stardisblue\Documents\Cours\L3_CMI\Eternity\rapport\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -96,13 +96,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -114,7 +111,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,95 +1308,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="Connecteur droit 139"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2286001" y="2286000"/>
-          <a:ext cx="0" cy="85397"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="141" name="Connecteur droit 140"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2286000" y="2286000"/>
-          <a:ext cx="1143000" cy="78828"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -1413,186 +1327,6 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="3429000" y="2286000"/>
-          <a:ext cx="0" cy="85397"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="145" name="Connecteur droit 144"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2286000" y="3429000"/>
-          <a:ext cx="0" cy="85397"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="146" name="Connecteur droit 145"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3429000" y="3429000"/>
-          <a:ext cx="0" cy="85397"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7883</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7883</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="147" name="Connecteur droit 146"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3055883" y="3429000"/>
-          <a:ext cx="0" cy="85397"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7883</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>7883</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="148" name="Connecteur droit 147"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2674883" y="2286000"/>
           <a:ext cx="0" cy="85397"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1665,30 +1399,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>7883</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>7883</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="150" name="Connecteur droit 149"/>
+        <xdr:cNvPr id="51" name="Connecteur droit avec flèche 50"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2293883" y="3048000"/>
-          <a:ext cx="0" cy="85397"/>
+        <a:xfrm>
+          <a:off x="2286000" y="2286000"/>
+          <a:ext cx="762000" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="38100"/>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1717,22 +1453,25 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="153" name="Connecteur droit 152"/>
+        <xdr:cNvPr id="53" name="Connecteur droit avec flèche 52"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3429000" y="2286000"/>
-          <a:ext cx="0" cy="1143000"/>
+          <a:ext cx="0" cy="762000"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1753,30 +1492,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>183931</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>6569</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>85398</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="156" name="Connecteur droit 155"/>
+        <xdr:cNvPr id="55" name="Connecteur droit avec flèche 54"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2279431" y="3435569"/>
-          <a:ext cx="1149569" cy="78829"/>
+        <a:xfrm flipH="1">
+          <a:off x="2667000" y="3429000"/>
+          <a:ext cx="762000" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1799,28 +1541,31 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>177362</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>91966</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="Connecteur droit 158"/>
+        <xdr:cNvPr id="57" name="Connecteur droit avec flèche 56"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2286000" y="2286000"/>
-          <a:ext cx="367862" cy="1234966"/>
+          <a:off x="2286000" y="2667000"/>
+          <a:ext cx="0" cy="762000"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1841,118 +1586,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>26276</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>78828</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="161" name="Connecteur droit 160"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2693276" y="2364828"/>
-          <a:ext cx="735725" cy="302172"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>183931</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="164" name="Connecteur droit 163"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3048000" y="2752397"/>
-          <a:ext cx="374431" cy="676603"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>6569</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85397</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="167" name="Connecteur droit 166"/>
+        <xdr:cNvPr id="61" name="Connecteur droit avec flèche 60"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="3048000"/>
-          <a:ext cx="768569" cy="466397"/>
+          <a:off x="4191000" y="2857500"/>
+          <a:ext cx="762000" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2240,7 +1900,7 @@
   <dimension ref="A1:AC24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2297,22 +1957,22 @@
       <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
-      <c r="L2" s="7">
+      <c r="L2" s="12">
         <v>0</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12">
         <v>1</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7">
+      <c r="O2" s="12"/>
+      <c r="P2" s="12">
         <v>3</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7">
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12">
         <v>6</v>
       </c>
-      <c r="S2" s="7"/>
+      <c r="S2" s="12"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="6">
@@ -2327,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="AA2" s="6"/>
-      <c r="AB2" s="8">
+      <c r="AB2" s="13">
         <v>3</v>
       </c>
-      <c r="AC2" s="8"/>
+      <c r="AC2" s="13"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -2344,14 +2004,14 @@
       <c r="I3" s="6"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="6"/>
@@ -2360,8 +2020,8 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -2383,28 +2043,28 @@
       <c r="I4" s="6"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="7">
+      <c r="L4" s="12">
         <v>2</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7">
+      <c r="M4" s="12"/>
+      <c r="N4" s="12">
         <v>4</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12">
         <v>7</v>
       </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12">
         <v>10</v>
       </c>
-      <c r="S4" s="7"/>
+      <c r="S4" s="12"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="9">
+      <c r="V4" s="7">
         <v>11</v>
       </c>
-      <c r="W4" s="9"/>
+      <c r="W4" s="7"/>
       <c r="X4" s="6">
         <v>12</v>
       </c>
@@ -2413,10 +2073,10 @@
         <v>13</v>
       </c>
       <c r="AA4" s="6"/>
-      <c r="AB4" s="10">
+      <c r="AB4" s="9">
         <v>4</v>
       </c>
-      <c r="AC4" s="10"/>
+      <c r="AC4" s="9"/>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -2430,26 +2090,26 @@
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
       <c r="T5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="U5" s="2"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2471,28 +2131,28 @@
       <c r="I6" s="6"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="7">
+      <c r="L6" s="12">
         <v>5</v>
       </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12">
         <v>8</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7">
+      <c r="O6" s="12"/>
+      <c r="P6" s="12">
         <v>11</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12">
         <v>13</v>
       </c>
-      <c r="S6" s="7"/>
+      <c r="S6" s="12"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-      <c r="V6" s="9">
+      <c r="V6" s="7">
         <v>10</v>
       </c>
-      <c r="W6" s="9"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="6">
         <v>15</v>
       </c>
@@ -2501,10 +2161,10 @@
         <v>14</v>
       </c>
       <c r="AA6" s="6"/>
-      <c r="AB6" s="10">
+      <c r="AB6" s="9">
         <v>5</v>
       </c>
-      <c r="AC6" s="10"/>
+      <c r="AC6" s="9"/>
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2518,24 +2178,24 @@
       <c r="I7" s="6"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -2557,28 +2217,28 @@
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="7">
+      <c r="L8" s="12">
         <v>9</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7">
+      <c r="M8" s="12"/>
+      <c r="N8" s="12">
         <v>12</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7">
+      <c r="O8" s="12"/>
+      <c r="P8" s="12">
         <v>14</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12">
         <v>15</v>
       </c>
-      <c r="S8" s="7"/>
+      <c r="S8" s="12"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="11">
+      <c r="V8" s="10">
         <v>9</v>
       </c>
-      <c r="W8" s="11"/>
+      <c r="W8" s="10"/>
       <c r="X8" s="6">
         <v>8</v>
       </c>
@@ -2587,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="AA8" s="6"/>
-      <c r="AB8" s="12">
+      <c r="AB8" s="11">
         <v>6</v>
       </c>
-      <c r="AC8" s="12"/>
+      <c r="AC8" s="11"/>
     </row>
     <row r="9" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -2604,24 +2264,24 @@
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
     </row>
     <row r="10" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -2687,10 +2347,10 @@
     </row>
     <row r="12" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="7">
+      <c r="B12" s="12">
         <v>6</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="6">
         <v>7</v>
       </c>
@@ -2705,10 +2365,10 @@
       <c r="I12" s="6"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="6">
+      <c r="L12" s="12">
         <v>0</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="6">
         <v>4</v>
       </c>
@@ -2717,10 +2377,10 @@
         <v>8</v>
       </c>
       <c r="Q12" s="6"/>
-      <c r="R12" s="6">
+      <c r="R12" s="14">
         <v>1</v>
       </c>
-      <c r="S12" s="6"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="4"/>
@@ -2734,8 +2394,8 @@
     </row>
     <row r="13" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -2744,14 +2404,14 @@
       <c r="I13" s="6"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="2"/>
       <c r="U13" s="1"/>
       <c r="V13" s="4"/>
@@ -2765,10 +2425,10 @@
     </row>
     <row r="14" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="6">
         <v>0</v>
       </c>
@@ -2777,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>10</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="9"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <v>11</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="6">
         <v>12</v>
       </c>
@@ -2795,10 +2455,10 @@
         <v>13</v>
       </c>
       <c r="Q14" s="6"/>
-      <c r="R14" s="6">
+      <c r="R14" s="9">
         <v>5</v>
       </c>
-      <c r="S14" s="6"/>
+      <c r="S14" s="9"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="4"/>
@@ -2812,24 +2472,24 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="4"/>
@@ -2843,28 +2503,28 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>4</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="13">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8">
         <v>3</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8">
         <v>2</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="10">
+      <c r="G16" s="8"/>
+      <c r="H16" s="9">
         <v>11</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="6">
+      <c r="L16" s="7">
         <v>7</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="6">
         <v>15</v>
       </c>
@@ -2873,10 +2533,10 @@
         <v>14</v>
       </c>
       <c r="Q16" s="6"/>
-      <c r="R16" s="6">
+      <c r="R16" s="9">
         <v>9</v>
       </c>
-      <c r="S16" s="6"/>
+      <c r="S16" s="9"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="4"/>
@@ -2890,24 +2550,24 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="4"/>
@@ -2921,40 +2581,40 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>15</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="13">
+      <c r="C18" s="10"/>
+      <c r="D18" s="8">
         <v>14</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8">
         <v>13</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12">
+      <c r="G18" s="8"/>
+      <c r="H18" s="11">
         <v>12</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="6">
+      <c r="L18" s="10">
         <v>3</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6">
+      <c r="M18" s="10"/>
+      <c r="N18" s="8">
         <v>10</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6">
+      <c r="O18" s="8"/>
+      <c r="P18" s="8">
         <v>6</v>
       </c>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6">
+      <c r="Q18" s="8"/>
+      <c r="R18" s="11">
         <v>2</v>
       </c>
-      <c r="S18" s="6"/>
+      <c r="S18" s="11"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="4"/>
@@ -2968,24 +2628,24 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="4"/>
@@ -3148,6 +2808,78 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="H2:I3"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H6:I7"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="L2:M3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="P2:Q3"/>
+    <mergeCell ref="R2:S3"/>
+    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="N4:O5"/>
+    <mergeCell ref="P4:Q5"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="L6:M7"/>
+    <mergeCell ref="N6:O7"/>
+    <mergeCell ref="P6:Q7"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="L8:M9"/>
+    <mergeCell ref="N8:O9"/>
+    <mergeCell ref="P8:Q9"/>
+    <mergeCell ref="R8:S9"/>
+    <mergeCell ref="V2:W3"/>
+    <mergeCell ref="X2:Y3"/>
+    <mergeCell ref="Z2:AA3"/>
+    <mergeCell ref="AB2:AC3"/>
+    <mergeCell ref="V4:W5"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="Z4:AA5"/>
+    <mergeCell ref="AB4:AC5"/>
+    <mergeCell ref="V6:W7"/>
+    <mergeCell ref="X6:Y7"/>
+    <mergeCell ref="Z6:AA7"/>
+    <mergeCell ref="AB6:AC7"/>
+    <mergeCell ref="V8:W9"/>
+    <mergeCell ref="X8:Y9"/>
+    <mergeCell ref="Z8:AA9"/>
+    <mergeCell ref="AB8:AC9"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="F14:G15"/>
+    <mergeCell ref="H14:I15"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="P12:Q13"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="L14:M15"/>
+    <mergeCell ref="N14:O15"/>
+    <mergeCell ref="P14:Q15"/>
+    <mergeCell ref="R14:S15"/>
     <mergeCell ref="L16:M17"/>
     <mergeCell ref="N16:O17"/>
     <mergeCell ref="P16:Q17"/>
@@ -3156,78 +2888,6 @@
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="P18:Q19"/>
     <mergeCell ref="R18:S19"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="P12:Q13"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="L14:M15"/>
-    <mergeCell ref="N14:O15"/>
-    <mergeCell ref="P14:Q15"/>
-    <mergeCell ref="R14:S15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="F14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="V6:W7"/>
-    <mergeCell ref="X6:Y7"/>
-    <mergeCell ref="Z6:AA7"/>
-    <mergeCell ref="AB6:AC7"/>
-    <mergeCell ref="V8:W9"/>
-    <mergeCell ref="X8:Y9"/>
-    <mergeCell ref="Z8:AA9"/>
-    <mergeCell ref="AB8:AC9"/>
-    <mergeCell ref="V2:W3"/>
-    <mergeCell ref="X2:Y3"/>
-    <mergeCell ref="Z2:AA3"/>
-    <mergeCell ref="AB2:AC3"/>
-    <mergeCell ref="V4:W5"/>
-    <mergeCell ref="X4:Y5"/>
-    <mergeCell ref="Z4:AA5"/>
-    <mergeCell ref="AB4:AC5"/>
-    <mergeCell ref="L6:M7"/>
-    <mergeCell ref="N6:O7"/>
-    <mergeCell ref="P6:Q7"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="L8:M9"/>
-    <mergeCell ref="N8:O9"/>
-    <mergeCell ref="P8:Q9"/>
-    <mergeCell ref="R8:S9"/>
-    <mergeCell ref="L2:M3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="P2:Q3"/>
-    <mergeCell ref="R2:S3"/>
-    <mergeCell ref="L4:M5"/>
-    <mergeCell ref="N4:O5"/>
-    <mergeCell ref="P4:Q5"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="H6:I7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="H2:I3"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
